--- a/biology/Botanique/Giovanni_Luigi_Pavarino/Giovanni_Luigi_Pavarino.xlsx
+++ b/biology/Botanique/Giovanni_Luigi_Pavarino/Giovanni_Luigi_Pavarino.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giovanni Luigi Pavarino est un naturaliste italien, né le 27 décembre 1867 à Turin et mort le 3 novembre 1937 dans cette même ville.
 Après des études de chimie, il enseigne les sciences naturelles et la chimie à l’école normale d’Aoste en 1896. Il part ensuite enseigner à Bobbio, près de Pavie puis à Turin.
@@ -512,7 +524,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">André Charpin et Gérard-Guy Aymonin (2004), Bibliographie sélective des Flores de France. V. Notices biographiques sur les auteurs cités : P-Z et compléments. Le Journal de Botanique de la Société botanique de France, 27 : 47-87.
 Pavar. est l’abréviation botanique standard de Giovanni Luigi Pavarino.
